--- a/data/output/results/df_class.xlsx
+++ b/data/output/results/df_class.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S210"/>
+  <dimension ref="A1:S308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16205,6 +16205,7356 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Skatov T.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>KAZ</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Serdarusic N.</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L211" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M211" t="n">
+        <v>-12</v>
+      </c>
+      <c r="N211" t="n">
+        <v>-18</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0.4642607691182684</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0.5357392308817317</v>
+      </c>
+      <c r="R211" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Etcheverry T.</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Ugo Carabelli C.</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>155</v>
+      </c>
+      <c r="M212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>11</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0.5470559475141402</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0.4529440524858597</v>
+      </c>
+      <c r="R212" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Svrcina D.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Roca Batalla O.</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L213" t="n">
+        <v>95</v>
+      </c>
+      <c r="M213" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N213" t="n">
+        <v>5</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0.5216767764612845</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0.4783232235387156</v>
+      </c>
+      <c r="R213" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Mejia N.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Gonzalez A.</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>-11</v>
+      </c>
+      <c r="L214" t="n">
+        <v>-166</v>
+      </c>
+      <c r="M214" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N214" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0.4762775005964381</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0.523722499403562</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Rublev A.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Dimitrov G.</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L215" t="n">
+        <v>3209</v>
+      </c>
+      <c r="M215" t="n">
+        <v>-11</v>
+      </c>
+      <c r="N215" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0.8074351853052154</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0.1925648146947846</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Giannessi A.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Piros Z.</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>9</v>
+      </c>
+      <c r="L216" t="n">
+        <v>327</v>
+      </c>
+      <c r="M216" t="n">
+        <v>14</v>
+      </c>
+      <c r="N216" t="n">
+        <v>5</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0.4570780827196125</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0.5429219172803875</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Guinard M.</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kovalik J.</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>SVK</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L217" t="n">
+        <v>56</v>
+      </c>
+      <c r="M217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N217" t="n">
+        <v>13</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0.6433064615765867</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0.3566935384234133</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Nadal R.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Alcaraz C.</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>17</v>
+      </c>
+      <c r="L218" t="n">
+        <v>4459</v>
+      </c>
+      <c r="M218" t="n">
+        <v>13</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0.8138404319175924</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0.1861595680824077</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Svrcina D.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kirkin E.</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L219" t="n">
+        <v>166</v>
+      </c>
+      <c r="M219" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N219" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0.7546847855824835</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0.2453152144175166</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Guinard M.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Giannessi A.</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>11</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0.6248587829286515</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0.3751412170713486</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Miedler L.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>AUT</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Uchida K.</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L221" t="n">
+        <v>-136</v>
+      </c>
+      <c r="M221" t="n">
+        <v>4</v>
+      </c>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0.4896405115627031</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0.5103594884372971</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Etcheverry T.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Olivo R.</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L222" t="n">
+        <v>218</v>
+      </c>
+      <c r="M222" t="n">
+        <v>9</v>
+      </c>
+      <c r="N222" t="n">
+        <v>16</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0.5843326831482957</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0.4156673168517043</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Andreev A.</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Gunneswaran P.</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L223" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M223" t="n">
+        <v>-14</v>
+      </c>
+      <c r="N223" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0.5539195124926178</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0.4460804875073822</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Torpegaard M.</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>DNK</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Catarina L.</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2</v>
+      </c>
+      <c r="L224" t="n">
+        <v>237</v>
+      </c>
+      <c r="M224" t="n">
+        <v>4</v>
+      </c>
+      <c r="N224" t="n">
+        <v>8</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0.5363226562769359</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0.4636773437230641</v>
+      </c>
+      <c r="R224" t="n">
+        <v>1</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Forejtek J.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Leshem E.</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L225" t="n">
+        <v>-83</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0.5322905467802393</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0.4677094532197607</v>
+      </c>
+      <c r="R225" t="n">
+        <v>1</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Etcheverry T.</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Dellien H.</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L226" t="n">
+        <v>-108</v>
+      </c>
+      <c r="M226" t="n">
+        <v>7</v>
+      </c>
+      <c r="N226" t="n">
+        <v>16</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0.7441954465115916</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0.2558045534884084</v>
+      </c>
+      <c r="R226" t="n">
+        <v>1</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Jaziri M.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Maden Y.</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>4</v>
+      </c>
+      <c r="L227" t="n">
+        <v>-237</v>
+      </c>
+      <c r="M227" t="n">
+        <v>11</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0.4661253714277439</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0.5338746285722561</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Lokoli L.</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Torpegaard M.</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>DNK</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>-167</v>
+      </c>
+      <c r="M228" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N228" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0.5501389113372804</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0.4498610886627196</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Bergs Z.</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Hoang A.</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L229" t="n">
+        <v>-91</v>
+      </c>
+      <c r="M229" t="n">
+        <v>7</v>
+      </c>
+      <c r="N229" t="n">
+        <v>2</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0.4893040277949351</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0.5106959722050648</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Seppi A.</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Machac T.</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>16</v>
+      </c>
+      <c r="L230" t="n">
+        <v>195</v>
+      </c>
+      <c r="M230" t="n">
+        <v>5</v>
+      </c>
+      <c r="N230" t="n">
+        <v>8</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0.4825710180703034</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0.5174289819296966</v>
+      </c>
+      <c r="R230" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Verdasco F.</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sousa J.</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>3</v>
+      </c>
+      <c r="L231" t="n">
+        <v>-347</v>
+      </c>
+      <c r="M231" t="n">
+        <v>16</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0.5350530560806016</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0.4649469439193984</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Grenier H.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Pospisil V.</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L232" t="n">
+        <v>-33</v>
+      </c>
+      <c r="M232" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N232" t="n">
+        <v>3</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0.5215386402299584</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0.4784613597700416</v>
+      </c>
+      <c r="R232" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Barrientos N.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Villanueva G.</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>8</v>
+      </c>
+      <c r="L233" t="n">
+        <v>-13</v>
+      </c>
+      <c r="M233" t="n">
+        <v>5</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0.4384199147097954</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0.5615800852902045</v>
+      </c>
+      <c r="R233" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Galarneau A.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Vatutin A.</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L234" t="n">
+        <v>-33</v>
+      </c>
+      <c r="M234" t="n">
+        <v>10</v>
+      </c>
+      <c r="N234" t="n">
+        <v>2</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0.5328033170942509</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0.4671966829057492</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Sachko V.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>UKR</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Muller A.</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>-266</v>
+      </c>
+      <c r="M235" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0.4539407402752736</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0.5460592597247264</v>
+      </c>
+      <c r="R235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Karlovskiy E.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Schnur B.</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>-24</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0.4747721529878703</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0.5252278470121298</v>
+      </c>
+      <c r="R236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Zuk K.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Soeda G.</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>-13</v>
+      </c>
+      <c r="L237" t="n">
+        <v>-101</v>
+      </c>
+      <c r="M237" t="n">
+        <v>5</v>
+      </c>
+      <c r="N237" t="n">
+        <v>5</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0.4375940378580417</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0.5624059621419583</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Vavassori A.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Zhang Z.</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>CHN</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>-91</v>
+      </c>
+      <c r="M238" t="n">
+        <v>-9</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0.7275854235057304</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0.2724145764942695</v>
+      </c>
+      <c r="R238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Forejtek J.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Geerts M.</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L239" t="n">
+        <v>-94</v>
+      </c>
+      <c r="M239" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N239" t="n">
+        <v>2</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0.5023261899122787</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0.4976738100877213</v>
+      </c>
+      <c r="R239" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Kicker N.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Ebden M.</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L240" t="n">
+        <v>34</v>
+      </c>
+      <c r="M240" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N240" t="n">
+        <v>-10</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0.4969344018968023</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0.5030655981031976</v>
+      </c>
+      <c r="R240" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Kokkinakis T.</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Fabbiano T.</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L241" t="n">
+        <v>345</v>
+      </c>
+      <c r="M241" t="n">
+        <v>14</v>
+      </c>
+      <c r="N241" t="n">
+        <v>20</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0.6201284944478297</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0.3798715055521703</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Popko D.</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>KAZ</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Monteiro T.</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>BRA</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L242" t="n">
+        <v>-267</v>
+      </c>
+      <c r="M242" t="n">
+        <v>9</v>
+      </c>
+      <c r="N242" t="n">
+        <v>8</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0.5692603924974571</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0.4307396075025429</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Ajdukovic D.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Mager G.</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L243" t="n">
+        <v>-731</v>
+      </c>
+      <c r="M243" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N243" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0.3978470321284552</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0.6021529678715447</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Blancaneaux G.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Janvier M.</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L244" t="n">
+        <v>-123</v>
+      </c>
+      <c r="M244" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N244" t="n">
+        <v>-13</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0.4643856398501578</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0.5356143601498422</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Munar J.</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Seyboth Wild T.</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>BRA</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>2</v>
+      </c>
+      <c r="L245" t="n">
+        <v>178</v>
+      </c>
+      <c r="M245" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N245" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0.6063300051736997</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0.3936699948263004</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Daniel T.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Purcell M.</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>5</v>
+      </c>
+      <c r="L246" t="n">
+        <v>250</v>
+      </c>
+      <c r="M246" t="n">
+        <v>5</v>
+      </c>
+      <c r="N246" t="n">
+        <v>6</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0.5559825580143966</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0.4440174419856034</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Gomez E.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>ECU</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Gojowczyk P.</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>-246</v>
+      </c>
+      <c r="M247" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N247" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0.3531174693513547</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0.6468825306486452</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Rodriguez Taverna S.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Villanueva G.</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L248" t="n">
+        <v>113</v>
+      </c>
+      <c r="M248" t="n">
+        <v>12</v>
+      </c>
+      <c r="N248" t="n">
+        <v>16</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0.5693833637090339</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0.4306166362909661</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Berankis R.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Furness E.</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>9</v>
+      </c>
+      <c r="L249" t="n">
+        <v>424</v>
+      </c>
+      <c r="M249" t="n">
+        <v>11</v>
+      </c>
+      <c r="N249" t="n">
+        <v>5</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0.5463400988193283</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0.4536599011806716</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Galan D.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Kicker N.</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L250" t="n">
+        <v>82</v>
+      </c>
+      <c r="M250" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N250" t="n">
+        <v>13</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0.494215971624419</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0.5057840283755809</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Giustino L.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Piros Z.</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>9</v>
+      </c>
+      <c r="L251" t="n">
+        <v>362</v>
+      </c>
+      <c r="M251" t="n">
+        <v>15</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0.4711205387878961</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0.5288794612121041</v>
+      </c>
+      <c r="R251" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Munar J.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Ymer E.</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>SWE</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>170</v>
+      </c>
+      <c r="M252" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0.5379393674218549</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0.4620606325781452</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Durasovic V.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Couacaud E.</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>-260</v>
+      </c>
+      <c r="M253" t="n">
+        <v>2</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0.5786203828365297</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0.4213796171634703</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Verdasco F.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Grenier H.</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>12</v>
+      </c>
+      <c r="L254" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M254" t="n">
+        <v>5</v>
+      </c>
+      <c r="N254" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0.4420182078880279</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0.5579817921119722</v>
+      </c>
+      <c r="R254" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Copil M.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Menendez-Maceiras A.</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L255" t="n">
+        <v>256</v>
+      </c>
+      <c r="M255" t="n">
+        <v>12</v>
+      </c>
+      <c r="N255" t="n">
+        <v>10</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0.4455931290986716</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0.5544068709013283</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>De Jong J.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Oliel Y.</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L256" t="n">
+        <v>230</v>
+      </c>
+      <c r="M256" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N256" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0.5017777507969139</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0.4982222492030862</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Kokkinakis T.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Seppi A.</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L257" t="n">
+        <v>107</v>
+      </c>
+      <c r="M257" t="n">
+        <v>6</v>
+      </c>
+      <c r="N257" t="n">
+        <v>2</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0.5548508026457619</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0.445149197354238</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Barrere G.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Arnaboldi A.</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L258" t="n">
+        <v>287</v>
+      </c>
+      <c r="M258" t="n">
+        <v>8</v>
+      </c>
+      <c r="N258" t="n">
+        <v>3</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0.6363722947475819</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0.363627705252418</v>
+      </c>
+      <c r="R258" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Zekic M.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Rosol L.</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M259" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N259" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0.457607568217995</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0.542392431782005</v>
+      </c>
+      <c r="R259" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Mena F.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Ritschard A.</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="n">
+        <v>67</v>
+      </c>
+      <c r="M260" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N260" t="n">
+        <v>-10</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0.5413957625155381</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0.4586042374844618</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Guinard M.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Zeppieri G.</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>3</v>
+      </c>
+      <c r="L261" t="n">
+        <v>245</v>
+      </c>
+      <c r="M261" t="n">
+        <v>3</v>
+      </c>
+      <c r="N261" t="n">
+        <v>11</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0.6316146784311428</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0.3683853215688572</v>
+      </c>
+      <c r="R261" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Zuk K.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Kotov P.</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>175</v>
+      </c>
+      <c r="M262" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N262" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0.3984921755280992</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0.6015078244719008</v>
+      </c>
+      <c r="R262" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Halys Q.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sachko V.</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>UKR</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>2</v>
+      </c>
+      <c r="L263" t="n">
+        <v>442</v>
+      </c>
+      <c r="M263" t="n">
+        <v>10</v>
+      </c>
+      <c r="N263" t="n">
+        <v>8</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0.6016114978186696</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0.3983885021813305</v>
+      </c>
+      <c r="R263" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Daniel T.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Munar J.</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>4</v>
+      </c>
+      <c r="L264" t="n">
+        <v>-83</v>
+      </c>
+      <c r="M264" t="n">
+        <v>4</v>
+      </c>
+      <c r="N264" t="n">
+        <v>8</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0.5023791059610767</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0.4976208940389233</v>
+      </c>
+      <c r="R264" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Van Rijthoven T.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Karlovskiy E.</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L265" t="n">
+        <v>-118</v>
+      </c>
+      <c r="M265" t="n">
+        <v>4</v>
+      </c>
+      <c r="N265" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0.414927973815496</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0.5850720261845039</v>
+      </c>
+      <c r="R265" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Niki T.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Jasika O.</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>6</v>
+      </c>
+      <c r="L266" t="n">
+        <v>-40</v>
+      </c>
+      <c r="M266" t="n">
+        <v>13</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0.5504430650276283</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0.4495569349723716</v>
+      </c>
+      <c r="R266" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Lestienne C.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Uchida K.</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L267" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M267" t="n">
+        <v>3</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0.5191660447782293</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0.4808339552217707</v>
+      </c>
+      <c r="R267" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Haase R.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Marchenko I.</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>UKR</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L268" t="n">
+        <v>-63</v>
+      </c>
+      <c r="M268" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N268" t="n">
+        <v>6</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0.4603560582094717</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0.5396439417905284</v>
+      </c>
+      <c r="R268" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Cerundolo F.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Griekspoor T.</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L269" t="n">
+        <v>-294</v>
+      </c>
+      <c r="M269" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N269" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0.533316957451083</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0.466683042548917</v>
+      </c>
+      <c r="R269" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Olivieri G.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Barrientos N.</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>-11</v>
+      </c>
+      <c r="L270" t="n">
+        <v>96</v>
+      </c>
+      <c r="M270" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0.5732887915208288</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0.4267112084791711</v>
+      </c>
+      <c r="R270" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Jaziri M.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Durasovic V.</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>11</v>
+      </c>
+      <c r="L271" t="n">
+        <v>30</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0.328338337504998</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0.6716616624950019</v>
+      </c>
+      <c r="R271" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Coric B.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Verdasco F.</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L272" t="n">
+        <v>-181</v>
+      </c>
+      <c r="M272" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0.449145472453476</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0.5508545275465241</v>
+      </c>
+      <c r="R272" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Galan D.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Millman J.</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L273" t="n">
+        <v>-459</v>
+      </c>
+      <c r="M273" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N273" t="n">
+        <v>8</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0.4430452610952783</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0.5569547389047217</v>
+      </c>
+      <c r="R273" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Laaksonen H.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Paire B.</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="n">
+        <v>-297</v>
+      </c>
+      <c r="M274" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N274" t="n">
+        <v>-11</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0.3646059899707033</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0.6353940100292967</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Forejtek J.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Blancaneaux G.</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L275" t="n">
+        <v>-52</v>
+      </c>
+      <c r="M275" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0</v>
+      </c>
+      <c r="O275" t="n">
+        <v>1</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0.4899704625178354</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0.5100295374821646</v>
+      </c>
+      <c r="R275" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Goffin D.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Carballes Baena R.</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>3</v>
+      </c>
+      <c r="L276" t="n">
+        <v>62</v>
+      </c>
+      <c r="M276" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N276" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O276" t="n">
+        <v>1</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0.4690210030898142</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0.5309789969101859</v>
+      </c>
+      <c r="R276" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Ajdukovic D.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Giustino L.</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L277" t="n">
+        <v>-227</v>
+      </c>
+      <c r="M277" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N277" t="n">
+        <v>5</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0.4680386339954004</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0.5319613660045996</v>
+      </c>
+      <c r="R277" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Bergs Z.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Lokoli L.</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L278" t="n">
+        <v>192</v>
+      </c>
+      <c r="M278" t="n">
+        <v>5</v>
+      </c>
+      <c r="N278" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0.5034274711655493</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0.4965725288344506</v>
+      </c>
+      <c r="R278" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Halys Q.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Berankis R.</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L279" t="n">
+        <v>-169</v>
+      </c>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="n">
+        <v>16</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0.5685100648571075</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0.4314899351428924</v>
+      </c>
+      <c r="R279" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Geerts M.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Napolitano S.</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L280" t="n">
+        <v>-104</v>
+      </c>
+      <c r="M280" t="n">
+        <v>-17</v>
+      </c>
+      <c r="N280" t="n">
+        <v>-18</v>
+      </c>
+      <c r="O280" t="n">
+        <v>1</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0.4685832877866487</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0.5314167122133513</v>
+      </c>
+      <c r="R280" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Alcaraz C.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Fucsovics M.</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1437</v>
+      </c>
+      <c r="M281" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N281" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0.62777213837649</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0.37222786162351</v>
+      </c>
+      <c r="R281" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Chung Y.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>KOR</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Bellier A.</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>66</v>
+      </c>
+      <c r="M282" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N282" t="n">
+        <v>-18</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0.5578093331782503</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0.4421906668217498</v>
+      </c>
+      <c r="R282" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Cilic M.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Popyrin A.</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>9</v>
+      </c>
+      <c r="L283" t="n">
+        <v>1074</v>
+      </c>
+      <c r="M283" t="n">
+        <v>11</v>
+      </c>
+      <c r="N283" t="n">
+        <v>2</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0.5399380518221835</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0.4600619481778166</v>
+      </c>
+      <c r="R283" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Kyrgios N.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Fognini F.</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L284" t="n">
+        <v>-666</v>
+      </c>
+      <c r="M284" t="n">
+        <v>6</v>
+      </c>
+      <c r="N284" t="n">
+        <v>15</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0.5133287706988707</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0.4866712293011293</v>
+      </c>
+      <c r="R284" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Rodionov J.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>AUT</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Zuk K.</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>70</v>
+      </c>
+      <c r="M285" t="n">
+        <v>8</v>
+      </c>
+      <c r="N285" t="n">
+        <v>8</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0.579719428714813</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0.4202805712851869</v>
+      </c>
+      <c r="R285" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Pospisil J.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Madaras D.</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>SWE</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>14</v>
+      </c>
+      <c r="L286" t="n">
+        <v>68</v>
+      </c>
+      <c r="M286" t="n">
+        <v>-13</v>
+      </c>
+      <c r="N286" t="n">
+        <v>-13</v>
+      </c>
+      <c r="O286" t="n">
+        <v>1</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0.4862997473003468</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0.5137002526996531</v>
+      </c>
+      <c r="R286" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Kubler J.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Schoolkate T.</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>11</v>
+      </c>
+      <c r="L287" t="n">
+        <v>192</v>
+      </c>
+      <c r="M287" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N287" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O287" t="n">
+        <v>1</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0.4838214707951071</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0.5161785292048929</v>
+      </c>
+      <c r="R287" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Valkusz M.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Bonadio R.</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L288" t="n">
+        <v>-232</v>
+      </c>
+      <c r="M288" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N288" t="n">
+        <v>3</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0.5765233807055519</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0.4234766192944481</v>
+      </c>
+      <c r="R288" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Alvarez Varona N.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Tsitsipas P.</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>GRC</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>160</v>
+      </c>
+      <c r="M289" t="n">
+        <v>4</v>
+      </c>
+      <c r="N289" t="n">
+        <v>3</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0.6032971651378162</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0.3967028348621838</v>
+      </c>
+      <c r="R289" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Sinner J.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Carreno-Busta P.</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>-9</v>
+      </c>
+      <c r="L290" t="n">
+        <v>2595</v>
+      </c>
+      <c r="M290" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0.6990552022872837</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0.3009447977127163</v>
+      </c>
+      <c r="R290" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Ruud C.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Bublik A.</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>KAZ</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2454</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>-15</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0.8103889867205478</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0.1896110132794522</v>
+      </c>
+      <c r="R291" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Giannessi A.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Kuhn N.</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>9</v>
+      </c>
+      <c r="L292" t="n">
+        <v>147</v>
+      </c>
+      <c r="M292" t="n">
+        <v>7</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0.5117029177213863</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0.4882970822786137</v>
+      </c>
+      <c r="R292" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Klein L.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>SVK</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Lopez San Martin A.</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L293" t="n">
+        <v>74</v>
+      </c>
+      <c r="M293" t="n">
+        <v>15</v>
+      </c>
+      <c r="N293" t="n">
+        <v>15</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0.456202967511038</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0.5437970324889621</v>
+      </c>
+      <c r="R293" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Hurkacz H.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Karatsev A.</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L294" t="n">
+        <v>2085</v>
+      </c>
+      <c r="M294" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N294" t="n">
+        <v>11</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0.6314859637064056</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0.3685140362935945</v>
+      </c>
+      <c r="R294" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Gomez-Herrera C.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Alvarez Varona N.</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>9</v>
+      </c>
+      <c r="L295" t="n">
+        <v>-143</v>
+      </c>
+      <c r="M295" t="n">
+        <v>5</v>
+      </c>
+      <c r="N295" t="n">
+        <v>3</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0.4821311833041613</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0.5178688166958386</v>
+      </c>
+      <c r="R295" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Hanfmann Y.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Vilella Martinez M.</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>4</v>
+      </c>
+      <c r="L296" t="n">
+        <v>154</v>
+      </c>
+      <c r="M296" t="n">
+        <v>12</v>
+      </c>
+      <c r="N296" t="n">
+        <v>15</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0.4681972622906596</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0.5318027377093404</v>
+      </c>
+      <c r="R296" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Kopriva V.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Rosol L.</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>-13</v>
+      </c>
+      <c r="L297" t="n">
+        <v>46</v>
+      </c>
+      <c r="M297" t="n">
+        <v>-14</v>
+      </c>
+      <c r="N297" t="n">
+        <v>-15</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0.4837835999850185</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0.5162164000149815</v>
+      </c>
+      <c r="R297" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Monteiro T.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>BRA</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Moroni G.</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>3</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>4</v>
+      </c>
+      <c r="L298" t="n">
+        <v>469</v>
+      </c>
+      <c r="M298" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N298" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O298" t="n">
+        <v>1</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0.458208714452979</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0.5417912855470211</v>
+      </c>
+      <c r="R298" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Cerundolo F.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Monfils G.</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>-13</v>
+      </c>
+      <c r="L299" t="n">
+        <v>-1055</v>
+      </c>
+      <c r="M299" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N299" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O299" t="n">
+        <v>1</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0.3921211273567054</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0.6078788726432947</v>
+      </c>
+      <c r="R299" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Moriya H.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Jaziri M.</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L300" t="n">
+        <v>159</v>
+      </c>
+      <c r="M300" t="n">
+        <v>-16</v>
+      </c>
+      <c r="N300" t="n">
+        <v>-17</v>
+      </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0.5557726148169424</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0.4442273851830577</v>
+      </c>
+      <c r="R300" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Quiroz R.</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>ECU</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Noguchi R.</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>10</v>
+      </c>
+      <c r="L301" t="n">
+        <v>4</v>
+      </c>
+      <c r="M301" t="n">
+        <v>25</v>
+      </c>
+      <c r="N301" t="n">
+        <v>25</v>
+      </c>
+      <c r="O301" t="n">
+        <v>1</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0.3528190877847726</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0.6471809122152276</v>
+      </c>
+      <c r="R301" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Medvedev D.</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Martinez P.</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="n">
+        <v>7333</v>
+      </c>
+      <c r="M302" t="n">
+        <v>7</v>
+      </c>
+      <c r="N302" t="n">
+        <v>13</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0.9428349825777944</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0.05716501742220571</v>
+      </c>
+      <c r="R302" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Chung Y.</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>KOR</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Miedler L.</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>AUT</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L303" t="n">
+        <v>-72</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O303" t="n">
+        <v>1</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0.4915658814065013</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0.5084341185934987</v>
+      </c>
+      <c r="R303" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Vesely J.</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Kuznetsov A.</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L304" t="n">
+        <v>249</v>
+      </c>
+      <c r="M304" t="n">
+        <v>23</v>
+      </c>
+      <c r="N304" t="n">
+        <v>13</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0.5472635513068312</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0.4527364486931687</v>
+      </c>
+      <c r="R304" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Alcaraz C.</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Cilic M.</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>-14</v>
+      </c>
+      <c r="L305" t="n">
+        <v>629</v>
+      </c>
+      <c r="M305" t="n">
+        <v>-17</v>
+      </c>
+      <c r="N305" t="n">
+        <v>-13</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0.6188190202572494</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0.3811809797427506</v>
+      </c>
+      <c r="R305" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Kohlschreiber P.</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Lehecka J.</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>19</v>
+      </c>
+      <c r="L306" t="n">
+        <v>-44</v>
+      </c>
+      <c r="M306" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N306" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O306" t="n">
+        <v>1</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0.3778310457524364</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0.6221689542475637</v>
+      </c>
+      <c r="R306" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>indoors</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Brouwer G.</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Bemelmans R.</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L307" t="n">
+        <v>-194</v>
+      </c>
+      <c r="M307" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N307" t="n">
+        <v>8</v>
+      </c>
+      <c r="O307" t="n">
+        <v>1</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0.455047112842893</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0.544952887157107</v>
+      </c>
+      <c r="R307" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Zeppieri G.</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Domingues J.</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>-8</v>
+      </c>
+      <c r="L308" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M308" t="n">
+        <v>8</v>
+      </c>
+      <c r="N308" t="n">
+        <v>7</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0.5345272127394407</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0.4654727872605594</v>
+      </c>
+      <c r="R308" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
